--- a/src/assets/files/sample.xlsx
+++ b/src/assets/files/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\personalProjects\svsudowindochat\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\personalProjects\svsudowindochat\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F3519-5966-458E-8BD9-1039D3010FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414A07E-6223-40BD-A929-A0CB90FFC551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C10E2E6-73FB-41B1-99A2-64799A0320C9}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{1C10E2E6-73FB-41B1-99A2-64799A0320C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,6 @@
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Employee Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Date Of Joining </t>
-  </si>
-  <si>
-    <t>Employee Designation</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -67,6 +58,15 @@
   </si>
   <si>
     <t>Xxxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Of Joining </t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,36 +453,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
